--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d17 trans\BESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51BF43B-F39C-4B12-A742-3E5C0AF0373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8188E271-3FF1-4F10-A6EC-2E90AADBD167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5988" yWindow="2328" windowWidth="17220" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -427,19 +427,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="70.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -447,13 +447,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -470,18 +470,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -578,8 +578,68 @@
       <c r="AF1">
         <v>2050</v>
       </c>
+      <c r="AG1">
+        <v>2051</v>
+      </c>
+      <c r="AH1">
+        <v>2052</v>
+      </c>
+      <c r="AI1">
+        <v>2053</v>
+      </c>
+      <c r="AJ1">
+        <v>2054</v>
+      </c>
+      <c r="AK1">
+        <v>2055</v>
+      </c>
+      <c r="AL1">
+        <v>2056</v>
+      </c>
+      <c r="AM1">
+        <v>2057</v>
+      </c>
+      <c r="AN1">
+        <v>2058</v>
+      </c>
+      <c r="AO1">
+        <v>2059</v>
+      </c>
+      <c r="AP1">
+        <v>2060</v>
+      </c>
+      <c r="AQ1">
+        <v>2061</v>
+      </c>
+      <c r="AR1">
+        <v>2062</v>
+      </c>
+      <c r="AS1">
+        <v>2063</v>
+      </c>
+      <c r="AT1">
+        <v>2064</v>
+      </c>
+      <c r="AU1">
+        <v>2065</v>
+      </c>
+      <c r="AV1">
+        <v>2066</v>
+      </c>
+      <c r="AW1">
+        <v>2067</v>
+      </c>
+      <c r="AX1">
+        <v>2068</v>
+      </c>
+      <c r="AY1">
+        <v>2069</v>
+      </c>
+      <c r="AZ1">
+        <v>2070</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -676,8 +736,68 @@
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -774,8 +894,68 @@
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -872,8 +1052,68 @@
       <c r="AF4">
         <v>0</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -970,8 +1210,68 @@
       <c r="AF5">
         <v>0</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1068,8 +1368,68 @@
       <c r="AF6">
         <v>0</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1164,6 +1524,66 @@
         <v>0</v>
       </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
         <v>0</v>
       </c>
     </row>
@@ -1177,18 +1597,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF7"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1285,8 +1705,68 @@
       <c r="AF1">
         <v>2050</v>
       </c>
+      <c r="AG1">
+        <v>2051</v>
+      </c>
+      <c r="AH1">
+        <v>2052</v>
+      </c>
+      <c r="AI1">
+        <v>2053</v>
+      </c>
+      <c r="AJ1">
+        <v>2054</v>
+      </c>
+      <c r="AK1">
+        <v>2055</v>
+      </c>
+      <c r="AL1">
+        <v>2056</v>
+      </c>
+      <c r="AM1">
+        <v>2057</v>
+      </c>
+      <c r="AN1">
+        <v>2058</v>
+      </c>
+      <c r="AO1">
+        <v>2059</v>
+      </c>
+      <c r="AP1">
+        <v>2060</v>
+      </c>
+      <c r="AQ1">
+        <v>2061</v>
+      </c>
+      <c r="AR1">
+        <v>2062</v>
+      </c>
+      <c r="AS1">
+        <v>2063</v>
+      </c>
+      <c r="AT1">
+        <v>2064</v>
+      </c>
+      <c r="AU1">
+        <v>2065</v>
+      </c>
+      <c r="AV1">
+        <v>2066</v>
+      </c>
+      <c r="AW1">
+        <v>2067</v>
+      </c>
+      <c r="AX1">
+        <v>2068</v>
+      </c>
+      <c r="AY1">
+        <v>2069</v>
+      </c>
+      <c r="AZ1">
+        <v>2070</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1383,8 +1863,68 @@
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1481,8 +2021,68 @@
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1579,8 +2179,68 @@
       <c r="AF4">
         <v>0</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1677,8 +2337,68 @@
       <c r="AF5">
         <v>0</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1775,8 +2495,68 @@
       <c r="AF6">
         <v>0</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1871,6 +2651,66 @@
         <v>0</v>
       </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
         <v>0</v>
       </c>
     </row>
